--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2726.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2726.xlsx
@@ -354,7 +354,7 @@
         <v>2.39824147476035</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.366714525913045</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2726.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2726.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163370657897421</v>
+        <v>0.8549122214317322</v>
       </c>
       <c r="B1">
-        <v>2.39824147476035</v>
+        <v>1.361811995506287</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.745779991149902</v>
       </c>
       <c r="D1">
-        <v>2.366714525913045</v>
+        <v>3.878943920135498</v>
       </c>
       <c r="E1">
-        <v>1.21650401093668</v>
+        <v>1.876351356506348</v>
       </c>
     </row>
   </sheetData>
